--- a/REGULAR/TICC/GATPANDAN, NENITA.xlsx
+++ b/REGULAR/TICC/GATPANDAN, NENITA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -900,6 +900,12 @@
   </si>
   <si>
     <t>UT(0-6-44)</t>
+  </si>
+  <si>
+    <t>10/26,27/2023</t>
+  </si>
+  <si>
+    <t>12/11,15,19,20,21/2023</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K456" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K456"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K458" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K458"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1927,12 +1933,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K456"/>
+  <dimension ref="A2:K458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2625" topLeftCell="A410" activePane="bottomLeft"/>
-      <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="3645" topLeftCell="A401" activePane="bottomLeft"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection pane="bottomLeft" activeCell="J421" sqref="J421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2103,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>144.15399999999994</v>
+        <v>142.90399999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2107,7 +2113,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>180.20799999999997</v>
+        <v>177.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11117,13 +11123,15 @@
       <c r="B415" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C415" s="13"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D415" s="38"/>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H415" s="38">
         <v>1</v>
@@ -11138,25 +11146,33 @@
       <c r="A416" s="39">
         <v>45200</v>
       </c>
-      <c r="B416" s="20"/>
-      <c r="C416" s="13"/>
+      <c r="B416" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D416" s="38"/>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H416" s="38"/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H416" s="38">
+        <v>1</v>
+      </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
+      <c r="K416" s="48">
+        <v>45205</v>
+      </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B417" s="20"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C417" s="13"/>
       <c r="D417" s="38"/>
       <c r="E417" s="9"/>
@@ -11165,34 +11181,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H417" s="38"/>
+      <c r="H417" s="38">
+        <v>2</v>
+      </c>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="48" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B418" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D418" s="38"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H418" s="38"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="38">
+        <v>1</v>
+      </c>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
-      <c r="K418" s="20"/>
+      <c r="K418" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B419" s="20"/>
+      <c r="A419" s="39"/>
+      <c r="B419" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C419" s="13"/>
       <c r="D419" s="38"/>
       <c r="E419" s="9"/>
@@ -11201,16 +11229,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H419" s="38"/>
+      <c r="H419" s="38">
+        <v>1</v>
+      </c>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="48">
+        <v>45239</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B420" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B420" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C420" s="13"/>
       <c r="D420" s="38"/>
       <c r="E420" s="9"/>
@@ -11219,18 +11253,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H420" s="38"/>
+      <c r="H420" s="38">
+        <v>1</v>
+      </c>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="48">
+        <v>45249</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B421" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C421" s="13"/>
-      <c r="D421" s="38"/>
+      <c r="D421" s="38">
+        <v>5</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
       <c r="G421" s="13" t="str">
@@ -11240,11 +11282,13 @@
       <c r="H421" s="38"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="20" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11262,7 +11306,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11280,7 +11324,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11298,7 +11342,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11316,7 +11360,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11334,7 +11378,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11352,7 +11396,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11370,7 +11414,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11388,7 +11432,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11406,7 +11450,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11424,7 +11468,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11442,7 +11486,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11460,7 +11504,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11478,7 +11522,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11496,7 +11540,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11514,7 +11558,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11532,7 +11576,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11550,7 +11594,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11568,7 +11612,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11586,7 +11630,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11604,7 +11648,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11622,7 +11666,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11640,7 +11684,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11658,7 +11702,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11676,7 +11720,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11694,7 +11738,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11712,7 +11756,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11730,7 +11774,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11748,7 +11792,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11766,7 +11810,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11784,7 +11828,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11801,7 +11845,9 @@
       <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="39"/>
+      <c r="A453" s="39">
+        <v>46266</v>
+      </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
       <c r="D453" s="38"/>
@@ -11817,7 +11863,9 @@
       <c r="K453" s="20"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="39"/>
+      <c r="A454" s="39">
+        <v>46296</v>
+      </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
       <c r="D454" s="38"/>
@@ -11849,20 +11897,52 @@
       <c r="K455" s="20"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="40"/>
-      <c r="B456" s="15"/>
-      <c r="C456" s="41"/>
-      <c r="D456" s="42"/>
+      <c r="A456" s="39"/>
+      <c r="B456" s="20"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="38"/>
       <c r="E456" s="9"/>
-      <c r="F456" s="15"/>
-      <c r="G456" s="41" t="str">
+      <c r="F456" s="20"/>
+      <c r="G456" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H456" s="42"/>
+      <c r="H456" s="38"/>
       <c r="I456" s="9"/>
-      <c r="J456" s="12"/>
-      <c r="K456" s="15"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="39"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="38"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="38"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="11"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="40"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="41"/>
+      <c r="D458" s="42"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="15"/>
+      <c r="G458" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="42"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="12"/>
+      <c r="K458" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
